--- a/scientific/mathoLoger.xlsx
+++ b/scientific/mathoLoger.xlsx
@@ -16,281 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
-    <t xml:space="preserve">welcome to another Mathologer video.
-today I'll animate some absolutely gorgeous visual shrink proofs for you.
-really nice super accessible and at the same time
-deep mathematics plus at the end I'll prove some really cool irrational
-trigonometry for you. something you may have always felt in your bones but never
-captured in words. but what's that? you've never heard of a shrink proof? well I've
-actually shown you some in previous videos but don't worry all will be
-explained. ready for a fun journey down a very deep rabbit hole? ok here we go.
-first to motivate things and to get you hooked here's a little puzzle: take a
-look at the grid of dots over there. how many squares can you make with all four
-corners on the dots? well plenty of you will be familiar with puzzles like this. of
-course it's easy to spot lots of squares but unless you're very systematic it's
-really easy to overlook a few and you're bound to get it wrong. shall we count the
-squares together? systematically? ok there is this one 4 times 4 square. then there
-are the 3 times 3 squares. how many of those are there. well 1 2 3 4
- ok, next are the two by twos. how many are there 1 2 3 4 5 6 7 8 9. and finally
-there the 1 by 1s. how many? it's not hard to guess right 1 4 9 so what's next
-yep that's the squares, so a good guess is that 16 is next and of course that's
-true. and so the total number of squares is 1 plus 4 plus 9 plus 16 which is 30.
-right? wrong :) and this comes as a bit of a surprise when you first see it. what did
-we miss? well there are lots of tilted squares in the square, like this one or
-that one. now first challenge for you: complete our
-count. systematically of course. how many squares are there altogether
-including the tilted ones. and for the super keen among you: can you find a formula
-for the number of squares in an n x n grid?
-as always leave your answers in the comments. ok time for the next puzzle:
-how many equilateral triangles are there in this grid? even the puzzle nuts among you
-may not have seen that one before? so how how many equilateral triangles can you spot
-in the grid? that's a tough one isn't it? not obvious at all. now how can we
-systematically look for such triangles? well we can just scale and move the red
-triangles so that two of its vertices end up on dots like this. ok and then we just
-have to check whether the third vertex is also on a dot. and .. no not in this case.
-let's just do it as a couple of times to build some intuition. so there... doesn't
-work. that one? nope. that one? not even close.
-what if we start tilting like this? nope. time for a prediction? now by now a
-lot of you will have probably begun to suspect that there are no equilateral
-triangles at all in this grid. and you are right no equilateral triangles in
-there. so then what if we start with a larger grid of dots? a pretty natural
-question to ask right? and being mathematicians let us go all the way and ask: are
-there equilateral triangles in the infinite square grid. so if the grid goes
-on forever in all directions are there any equilateral triangles? you can
-probably guess but the first mathematician to ask this question to prove
-the answer was the French mathematician Eduard Lucas in 1875. you may have come
-across his name before. the important relatives of the Fibonacci numbers, the
-lucas numbers are named after him. there 2 plus 1 is 3, 3 plus 4 is 7, 4 plus 7 is
-11, etc this sequence grows just like the Fibonacci numbers except the
-sequence starts with 2 and 1 rather than two 1s.
-Edoard Lucas is also the inventor of the Tower of Hanoi puzzle. you know that one? and he
-was the first to publish a description of the well-known game dots and boxes.
-I played that when I was young. anyway enough gameplay back to our triangle
-hunt. yep back to the hunt. and first one important and easy observation. we can
-find triangles with vertices on the grid points that are really really really
-close to equilateral triangles. why is that? well let's suppose that our grid
-has tiny spacing of, doesn't really matter, one millimeter. okay now take a
-huge equilateral triangle with let's say 1 kilometer sides. ok now toss the
-triangle however you like onto the grid. it's it's like a carnival game and
-you're trying to have all three vertices of the triangle hit the dots. will you
-succeed? of course not. no one ever wins at carnival games. but you will get very
-very close. well perfect for getting you to pay for another toss. right? so because
-of the tiny grid spacing each vertex will be no more than one millimeter away
-from some grid point. so we can just deform our huge equilateral triangle
-just a tiny little bit by moving each vertex to its closest grid point, like
-this. ok this new triangle will be pretty much indistinguishable from an exact
-equilateral triangle right? you can't tell the difference even with this much
-smaller set up. and in this way, by making the beginning equilateral triangle
-larger and larger, we find triangles with vertices on grid points that are as
-close as we like to being equilateral. but of course close doesn't win the game
-in carnival games or mathematics. the fact that these ultra close
-approximations exist does not prove that they are exact equilateral triangles
-hiding in the square grid. and in fact there aren't. Edward Luca proved the
-surprising fact that there aren't any equilateral triangles there. again that
-happened about 150 years ago. Lucas's proof over there
-was very pretty but algebraic. what I want to show you instead is a visual proof
-the Mathologerisation of a really amazing proof by the mathematician Joel
-Hamkins that he posted on his blog in 2016. if you've got mathematics in your
-blood then I guarantee this stuff will make your day. okay
-to set up the proof we'll give two simple properties of square grids. for the first
-property connect any two of the grid points with a segment and color the
-endpoints of a segment blue and green. there now turn the segment 90 degrees
-around the blue end and the green end will lend on another grid point. easy to
-see right. same thing if you turn around 180 degrees or 270. that's our turning
-property. here's how we can use this property. let's say somebody tells us
-that the two dots are part of a square grid then we can use the turning
-property to discover other points in this grid there that's another point of
-a grid and that's another one and another one. got it?
-great! now for our second property which I'll call the shift property. start again
-with two points in the grid. so same guys. grab the segment and shift the segment
-so that the Blue Point ends up at another point of the grid like this. okay
-then the Green Point will also wind up at a point of the grid. now let's do it
-one more time. okay shift over. again the green point coincides with  a point of the
-grid. pretty obvious right. just like for the turning property we can
-use the shift property to capture points of a mystery square grid. as an example
-say we know that those three points over there belong to a square grid. then
-here's how we can find another point of the grid. right just grab it
-and shift like that and we found another point. all clear?
-piece of cake :) okay let's get to work. let me show you why there are no equilateral
-triangles in the square grid. let's assume what we see over there is an
-equilateral triangle with all three vertices in some square grid. now.
-important, we have no idea whatsoever what that grid might be, its spacing or
-how it might be rotated. all we know about the grid is that the three
-triangle vertices are grid points. but using our turning and shift properties
-we can capture some of more points and, and this will be important for later, so
-remember it. okay note that for the moment we'll only use the shift property.
-okay time to begin our hunt. well that's kind of cool isn't it this
-means that if a square grid contains an equilateral triangle then it also
-contains a regular hexagon. okay let's keep on going and pin down some more
-points of the grid. remember, so far we've only used a shift property but now the
-turning property kicks in all we'll need are 90-degree turns. and here we go. this
-means that if a square grid contains a regular hexagon then it also contains a
-smaller regular hexagon and at this point are your mathematical spider senses
- tingling? no? well keep watching. Got it now? we've created an incredibly
-shrinking nest of hexagons with all the vertices on our square grid. but of
-course that's completely impossible. Think about it no matter what the
-spacing of the grid is eventually the hexagons will be too small to reach from
-grid point to grid point. right? there. no chance. so where does this leave us?
-okay so mathematicians may do some astonishing things but we aren't still
-not allowed to do the impossible. we can't really make that shrinking nest
-of hexagons. but those hexagons all came straight
-from the assumption that our square grid contains an equilateral triangle. and so
-that assumption just cannot have been true, the grid could not have possibly
-contained an equilateral triangle. and that's the proof. a beautiful proof by
-contradiction. absolutely marvelous isn't it? of course
-along the way we also showed that there are no regular hexagons in the square
-grid. so what about the other regular polygons? Pentagons and heptagons and
-octagons, and so on? well exactly the same argument allows us to show that all the
-remaining regular polygons also cannot occur in a square grid. all we get are
-squares. for example here are the shrinking regular pentagon's that do the
-trick. okay to summarize: square grids do not
-contain any regular polygons, apart from squares of course. end of story?
-nope just the end of the chapter. time for another puzzle. we'll return to our
-incredibly shrinking polygons in the plane soon, but first let's do some
-cheating let's add a dimension and see what that gives us. that's a three by
-three by three cubical grid. I've drawn in the struts since without them the
-grid is pretty confusing. pretty damn confusing right? can't see the 3d at all.
-anyway time for more puzzles. you know what I'm going to ask right? yep how many
-squares are in this three by three by three grid? and then how many equilateral
-triangles? regular pentagons? regular hexagons etc? I'll leave figuring out the
-number of squares as a challenge for you. in the comments right. what about the
-other regular polygons? anything in here or in the infinite cubical grid? hmm
-well doesn't look very triangly, does it? but have a closer look. yep those
-three corners of one of the cubic cells are the vertices of a perfect
-equilateral triangle. why? well because the three edges are diagonals of faces
-of that cubical cell and of course all these diagonals have the same lengths.
-but since there's an equilateral triangle in this grid, wouldn't the shift
-property then give us a regular hexagon just like in 2d? yep and here it is. huh
-remember what happened last time. so won't the turning property now allow us
-to create a smaller hexagon in the grid and then a smaller one and so forth.
-mm-hmm does that mean the equilateral triangle that really is there really
-isn't there? have we exploded the mathematical universe? well let's try.
-ha it doesn't work, the vertices of the new smaller regular hexagons are not
-grid points. the mathematical universe is safe. in fact, while the 3d grid
-definitely has the shifting property or a shift property it doesn't have the
-turning property. but now what about all those other polygons? remember all our
-proofs by contradiction in the 2d square grid used the turning property to create
-the shrinking polygons. that doesn't work in 3d. so maybe all of those other
-polygons are also hiding in the cubical grid. that'd be really cool and it's not ... 
-true. the devil comes to spoil our fun in the
-form of a pentagram. have a look at this. well that's pretty cool an Eiffel Tower
-vanishing inwards rather than upwards. so what just happened?
-well we constructed a sequence of shrinking pentagons just using the
-shifting property which, remember, also works in 3d. and so this proves that
-regular pentagons also don't exist in the 3d grid. the same sort of star
-argument also works for lots of the other regular n-gons. for example, here's
-a shrinking diagram proving that there are no regular heptagons in the grid
-and here's the one for the regular 9-gon. however this really cool argument
-doesn't work for all n-gons. of course it better not works for hexagons and since
-they really are there. but it also doesn't work for octagons see if you can
-figure out what's goes wrong in these cases. in fact the star argument fails
-for any regular n-gon where n is a power of two. but all is not lost. there's a
-third shrinking argument again just using the shifting property that takes
-care of all regular n-gons beyond the hexagons. this argument actually dates
-back to 1946 and a paper by the Swiss mathematician Willy Scherrer. I only found
-this one after quite a bit of digging. now here's an animation of Willy
-Scherrer's shrinking argument. Enjoy Isn't that absolutely beautiful? as a
-pretty easy challenge for you figure out why Scherrer's shrinking argument fails for
-the other regular polygons for hexagons and below. great stuff isn't it? let's
-summarize what we've got so far. so the 2d square grid only contains one type of
-regular polygons the squares. all right. the 3d cubical grid contains three types
-of regular polygons: equilateral triangles, squares and regular hexagons.
-not sure whether you're into this stuff but what about higher dimensions? nope
-nothing new happens there since these higher dimensional hypercube grids also
-have the shift property everything that we said for the 3d cubical grid remains
-true. so they contain equilateral triangles and squares and regular
-hexagons but that's it. and, finally, end of story?
-nope, one more chapter to go. we'll answer a question that was staring at us all
-through school but that probably none of us ever asked. ready to go deeper? okay last chapter. ready for some trick?
-no, wait, come back. there is no flagpoles or ladders against the wall. you really
-like this one I promise. this is Willy Scherrer's 1946 paper on shrinking
-polygons. it's very short and believe it or not it doesn't contain a single
-diagram. amazing isn't it? just looking at this you would never suspect it there is
-a nice visual proof hiding there. mathematicians can be really weird at
-times. and it gets weirder Scherrer says that the only reason why he published
-his proof is because another Swiss mathematician his student Hugo Hadwiger
- found a really good application for the shrinking argument. and what was
-Hadwiger's application? let's keep scrolling. there in the same
-journal right after Scherrer's paper we find Hadwigers paper entitled Über die rationalen Hauptwinkel der Goniometrie All clear? what's that? you
-don't speak German? that's okay I forgive you :) Irgendwann mach ich auch mal ein ganzes Mathologer Video auf deutsch. versprochen. Anyway, German are not there's plenty here that should be very
-familiar. up top there's fractions of 2 pi and down below
-I'm sure you'll all recognize the angles in that list 0 30 45 60 90 120 etc. these
-are the nice angles that we all know from school, the angles that pop up in
-equilateral triangles and squares and regular hexagons the sort of regular
-polygons we've been going on about. the niceness of these angles shows up in
-other ways as well. most obviously these angles are all rational, they are simple
-fractions of a full circle. but of course just like there are infinitely many
-rational numbers they are infinitely many rational angles. but what makes
-those particular rational angles especially nice is the trigonometry.
-those are the angles for which getting the exact values of trigonometric ratios
-sine and cosine and tan is really straightforward. and there's something
-extra special about those trig value that you would have always known but
-perhaps never focused upon. for each of those rational angles above at least one
-of the trigonometric ratios is also rational. all rational numbers there on
-the right. looks very familiar doesn't it? and now comes Hadwiger's insight. if we
-look at Scherrer's shrinking polygons in just the right way Scherrer's argument
-proves that the angles up there are the only rational angles with at least one
-of the trigonometric ratios also a rational number. so really just school
-stuff and something you probably never knew. definitely it was new to me.
-obviously this is an absolute gem but unfortunately Hadwiger write-up is a
-bit of a mess. and so for you and for posterity let me present you with a
-Mathologerisation of Hadwigers proof. I'll focus on the cosine part of the
-proof, the proof that the only rational angles with rational cosines are the
-ones over there together with these obvious companions. right the cosines of
-all these simple angles are either 0 1 minus 1 1/2 or - 1/2. and the claim
-is that the cosines of all other rational angles are irrational numbers.
-that's what we want to prove. ok so just as a reminder a rational anger is an
-angle of this form. here p over q is a non-negative fraction less than 1 in
-lowest terms so the integers p and q have no common factor and p is less than
-q. so the fractions in our short list over there are just the rational
-fractions with q equal to 2 3 4 &amp; 6. so what we want to show is that all cosines
-of rational fractions with q equal to 5 7 8 9 etc are irrational. 5 7 8 9 etc. notice that these are exactly
-the numbers corresponding to polygons for which the shift property gives us
-shrinking arguments. not a coincidence :) okay let me show you how the proof works
-using a specific example. let me show you that the cosine of the angle 3/8 of 360
-is irrational. as you can probably guess since the proof is based upon our
-shrinking argument this will also be a proof by contradiction. so let's assume
-that the cosine of our angle is a rational number. now let's look at
-multiples of our angle 2 times alpha, 3 times alpha, 4 times alpha, 5 times alpha and so on. it turns out, and this is really just high school stuff,
-that all the cosines of the multiples of our angle alpha can be written as
-integer polynomials of cos alpha. above I've listed the first few of these
-polynomials. let's have a look at the very first one. there that one. cos of 2
-alpha equals minus 1 plus 2 times cos squared alpha. well since we are assuming
-that cos alpha is a rational number r that means cos of 2 alpha is also a
-rational number right? if r is a rational number then minus 1 plus 2 r squared is
-also a rational number. in fact, in exactly the same way the other cosine
-polynomials show that all the cosines of these multiples of alpha are rational.
-We will use this fact in a moment. again the the specific angle we want to focus on is
-3/8 of 360. ok what's next? well if we want to apply our shrinking argument we
-better bring in a regular polygon to shrink. the denominator of our angle is 8
-and so we start with this regular octagon centered at the origin of the XY
-plane and with outer radius 1. here's our angle. here's 2 times this angle and 3
-times okay and one more 4 times and so on. because the numerator 3 and the
-denominator 8 are relatively prime we hit all corners of the octagon. okay
-remember the cosines of all the multiples of our angle are rational.
-because we chose radius 1 this is the same as saying that the x-coordinates of
-all the vertices of our octagon are rational. now let's make everything
-integers. right? rational numbers are good but integers are better. suppose all
-those fractions there have common denominator s. okay then scaling this
-picture by s gives an octagon all of whose vertices have integer
-x-coordinates. let's just do this. okay so we scale up and it makes all those
-rational x-coordinates into integer x- coordinates. all good? and now all is ready
-to use shifts to perform the shrinking construction just as before. so let's
-just do this again quickly. you get it? the x-coordinates of the
-original octagon are all integers but because we're using shifts that means
-all the x-coordinates of the second smaller octagon must also be integers.
-all those guys are also integers. and you can see where we're going with this
-right? the exact same will be true for all the subsequent smaller octagons. so
-all the infinitely many colored dots that we come across this way stand for
-integers. and of course that's impossible since the spacing between the dots
-shrinks to zero they can't possibly all be integers. and that's our contradiction.
-tada!! so we've used our shrinking regular
-octagons to prove that the cosine of the angle 3/8 of 360 is irrational and
-similarly we can use shrinking regular q-gons
-to prove that the cosines of all these general rational angles are irrational.
-and the sine and tan part of the proof are also easy. isn't that beautiful.
-okay leave a note in the comments and let me know what you think of all this.
-well and that's all from me for today. until next time. </t>
+    <t>content</t>
   </si>
   <si>
     <t xml:space="preserve">Welcome to another Mathologer video
@@ -10243,8 +9969,16 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -10260,7 +9994,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -10268,12 +10002,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10568,14 +10320,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A72"/>
+  <dimension ref="A1:A67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -10809,103 +10561,103 @@
         <v>46</v>
       </c>
     </row>
+    <row r="48" spans="1:1">
+      <c r="A48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" t="s">
+        <v>49</v>
+      </c>
+    </row>
     <row r="51" spans="1:1">
       <c r="A51" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" t="s">
-        <v>48</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:1">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:1">
       <c r="A55" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:1">
       <c r="A56" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:1">
       <c r="A57" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:1">
       <c r="A58" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:1">
       <c r="A59" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:1">
       <c r="A60" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:1">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:1">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:1">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1">
+      <c r="A64" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:1">
       <c r="A65" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1">
       <c r="A67" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
-      <c r="A69" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
-      <c r="A70" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
-      <c r="A71" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
-      <c r="A72" t="s">
         <v>66</v>
       </c>
     </row>
